--- a/q22/Q22填表答案_单值结果_1.0.xlsx
+++ b/q22/Q22填表答案_单值结果_1.0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,91 +448,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sub002</t>
+          <t>sub006</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.888720000000001</v>
+        <v>-39.99103999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sub004</t>
+          <t>sub011</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.9129</v>
+        <v>11.38613333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sub005</t>
+          <t>sub042</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.730500000000001</v>
+        <v>2.8351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sub009</t>
+          <t>sub064</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.2087</v>
+        <v>9.429516666666666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sub012</t>
+          <t>sub067</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.32857142857143</v>
+        <v>17.76263333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sub014</t>
+          <t>sub070</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.979266666666667</v>
+        <v>5.1827</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sub018</t>
+          <t>sub071</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.09105</v>
+        <v>-13.54353333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sub019</t>
+          <t>sub072</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.08705</v>
+        <v>9.505633333333334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sub020</t>
+          <t>sub075</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-11.93142</v>
+        <v>-2.96718</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub086</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>17.919475</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub089</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-15.543675</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub092</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3.00365</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub096</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10.4381</v>
       </c>
     </row>
   </sheetData>

--- a/q22/Q22填表答案_单值结果_1.0.xlsx
+++ b/q22/Q22填表答案_单值结果_1.0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,131 +448,591 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sub006</t>
+          <t>sub001</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-39.99103999999999</v>
+        <v>-49.90736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sub011</t>
+          <t>sub003</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.38613333333333</v>
+        <v>-16.05603333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sub042</t>
+          <t>sub016</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.8351</v>
+        <v>-25.87583333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sub064</t>
+          <t>sub021</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.429516666666666</v>
+        <v>13.98945</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sub067</t>
+          <t>sub025</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.76263333333333</v>
+        <v>8.338866666666668</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sub070</t>
+          <t>sub026</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.1827</v>
+        <v>-3.541175</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sub071</t>
+          <t>sub027</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-13.54353333333333</v>
+        <v>9.613575000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sub072</t>
+          <t>sub028</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.505633333333334</v>
+        <v>-7.20462</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sub075</t>
+          <t>sub029</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.96718</v>
+        <v>-10.655575</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sub086</t>
+          <t>sub031</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.919475</v>
+        <v>-8.127766666666666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sub089</t>
+          <t>sub032</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-15.543675</v>
+        <v>26.5316</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sub092</t>
+          <t>sub033</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.00365</v>
+        <v>23.4129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sub096</t>
+          <t>sub034</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.4381</v>
+        <v>-18.7951</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub036</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>13.3009</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub037</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-7.300860000000002</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub038</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>13.67808</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub039</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-25.34998571428572</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub040</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-6.07595</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub041</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>23.9277</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub043</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5.451275</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub044</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-16.42671666666667</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub045</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>12.946075</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub046</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-6.947366666666666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub047</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>17.7763</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub048</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-7.557799999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub049</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>28.82125</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub050</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>18.2596</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub051</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>18.2747</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub052</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-10.02271666666667</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub053</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>7.164175</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>sub054</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>13.9457</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>sub055</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-5.1384</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>sub056</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>14.03695555555556</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>sub057</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>22.63036666666666</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>sub058</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10.39723333333333</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>sub060</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.4429111111111108</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>sub061</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-29.18111666666667</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>sub062</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>13.7891</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>sub063</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-14.5572375</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sub065</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-12.486275</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>sub066</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>4.01774</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>sub068</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-2.2895375</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>sub073</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>22.27183333333333</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>sub074</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-29.9267</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>sub076</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>21.76278</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>sub077</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2.38932</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>sub080</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>20.39676666666666</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sub082</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-1.698866666666667</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>sub083</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-8.639466666666667</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>sub084</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>7.5547</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>sub085</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-9.257866666666667</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>sub087</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>26.1725</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>sub090</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.5234750000000012</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>sub094</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>14.80394</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>sub095</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-63.16616</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>sub097</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>22.2474</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>sub098</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2.36884</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>sub099</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>5.429866666666666</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>sub100</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>24.04823333333333</v>
       </c>
     </row>
   </sheetData>
